--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2227584.983379714</v>
+        <v>-2230172.49458529</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>176.4818070580931</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>244.9225749013994</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
         <v>296.3356618821742</v>
       </c>
       <c r="I2" t="n">
-        <v>48.08148421406807</v>
+        <v>48.08148421406815</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>251.0086695104302</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.089742000015</v>
       </c>
       <c r="H3" t="n">
-        <v>90.46872094984357</v>
+        <v>90.46872094984359</v>
       </c>
       <c r="I3" t="n">
-        <v>11.79954938173971</v>
+        <v>11.79954938173974</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>50.9902980336283</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339733</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.62837588899008</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978304</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>191.0879511638283</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.8723165903172</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2159662989849</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>250.2729773868542</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>64.09018561476086</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>36.89863216765723</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>107.6238993430267</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>36.41670903610014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>147.6364325960786</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>252.2537595499113</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>7.102990402094302</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,13 +1345,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>249.6351755834639</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.02919805175949</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856678</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>211.1474991249032</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.0987184306159</v>
+        <v>177.1006680594871</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417096</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.4765410832876</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>228.955370467302</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174109</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.01175877060129</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>172.8869738680028</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>22.61263105777491</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2722,10 +2722,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>94.64226186542889</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408058</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545292</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3475,7 +3475,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1437.638726614857</v>
+        <v>2158.840945934238</v>
       </c>
       <c r="C2" t="n">
-        <v>1068.676209674445</v>
+        <v>1980.576494360407</v>
       </c>
       <c r="D2" t="n">
-        <v>1068.676209674445</v>
+        <v>1622.310795753656</v>
       </c>
       <c r="E2" t="n">
-        <v>1068.676209674446</v>
+        <v>1236.522543155412</v>
       </c>
       <c r="F2" t="n">
-        <v>657.6903048848382</v>
+        <v>825.5366383658045</v>
       </c>
       <c r="G2" t="n">
-        <v>410.2937645803942</v>
+        <v>410.2937645803943</v>
       </c>
       <c r="H2" t="n">
-        <v>110.9648131842587</v>
+        <v>110.9648131842588</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247277</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730315</v>
+        <v>237.1001391730312</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315697</v>
+        <v>549.6723906315692</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529747</v>
+        <v>974.3476699529729</v>
       </c>
       <c r="M2" t="n">
-        <v>1478.550181808271</v>
+        <v>1478.550181808268</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811715</v>
+        <v>1995.525025811713</v>
       </c>
       <c r="O2" t="n">
-        <v>2470.354450076072</v>
+        <v>2470.354450076069</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.109377259759</v>
+        <v>2841.109377259757</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510238</v>
+        <v>3071.358140510237</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.882870623639</v>
+        <v>3119.882870623637</v>
       </c>
       <c r="S2" t="n">
-        <v>3005.708673672841</v>
+        <v>3005.70867367284</v>
       </c>
       <c r="T2" t="n">
-        <v>2798.984896614958</v>
+        <v>2798.984896614957</v>
       </c>
       <c r="U2" t="n">
-        <v>2545.440785998361</v>
+        <v>2545.44078599836</v>
       </c>
       <c r="V2" t="n">
-        <v>2214.37789865479</v>
+        <v>2545.44078599836</v>
       </c>
       <c r="W2" t="n">
-        <v>2214.37789865479</v>
+        <v>2545.44078599836</v>
       </c>
       <c r="X2" t="n">
-        <v>2214.37789865479</v>
+        <v>2545.44078599836</v>
       </c>
       <c r="Y2" t="n">
-        <v>1824.238566678979</v>
+        <v>2545.44078599836</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3126773451369</v>
+        <v>1494.450283274067</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8596480640099</v>
+        <v>1319.99725399294</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9252384027586</v>
+        <v>1171.062844331689</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6877833973032</v>
+        <v>1011.825389326233</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1532254241882</v>
+        <v>865.2908313531183</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6989405756882</v>
+        <v>728.8365465046184</v>
       </c>
       <c r="H3" t="n">
-        <v>74.31639416170481</v>
+        <v>637.454000090635</v>
       </c>
       <c r="I3" t="n">
-        <v>62.39765741247277</v>
+        <v>625.5352633414029</v>
       </c>
       <c r="J3" t="n">
-        <v>147.6314117602529</v>
+        <v>710.769017689183</v>
       </c>
       <c r="K3" t="n">
-        <v>371.4642984981863</v>
+        <v>1068.312822670917</v>
       </c>
       <c r="L3" t="n">
-        <v>718.7577785663805</v>
+        <v>1415.606302739111</v>
       </c>
       <c r="M3" t="n">
-        <v>1277.100675446835</v>
+        <v>1840.238281375767</v>
       </c>
       <c r="N3" t="n">
-        <v>1727.380043941864</v>
+        <v>2290.517649870795</v>
       </c>
       <c r="O3" t="n">
-        <v>2117.077901701059</v>
+        <v>2680.21550762999</v>
       </c>
       <c r="P3" t="n">
-        <v>2410.51172267956</v>
+        <v>2973.649328608491</v>
       </c>
       <c r="Q3" t="n">
-        <v>2556.745264694707</v>
+        <v>3119.882870623637</v>
       </c>
       <c r="R3" t="n">
-        <v>2556.745264694707</v>
+        <v>3119.882870623637</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.6136627297</v>
+        <v>2988.75126865863</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.603124153399</v>
+        <v>2795.74073008233</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.529278295636</v>
+        <v>2567.666884224566</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.377170063893</v>
+        <v>2332.514775992824</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.139813335692</v>
+        <v>2078.277419264622</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.288313130159</v>
+        <v>1870.425919059089</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.528014365205</v>
+        <v>1662.665620294135</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3144413311829</v>
+        <v>676.2535208330189</v>
       </c>
       <c r="C4" t="n">
-        <v>507.3144413311829</v>
+        <v>507.317337905112</v>
       </c>
       <c r="D4" t="n">
-        <v>507.3144413311829</v>
+        <v>357.2006984927762</v>
       </c>
       <c r="E4" t="n">
-        <v>455.8090897820633</v>
+        <v>209.2876049103831</v>
       </c>
       <c r="F4" t="n">
-        <v>308.919142284153</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="G4" t="n">
-        <v>308.919142284153</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0222795225638</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="I4" t="n">
-        <v>62.39765741247277</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="J4" t="n">
-        <v>102.2230998038608</v>
+        <v>102.2230998038607</v>
       </c>
       <c r="K4" t="n">
-        <v>297.5053722589867</v>
+        <v>297.5053722589864</v>
       </c>
       <c r="L4" t="n">
-        <v>602.9258822712702</v>
+        <v>602.9258822712699</v>
       </c>
       <c r="M4" t="n">
-        <v>935.3381100583199</v>
+        <v>935.3381100583194</v>
       </c>
       <c r="N4" t="n">
-        <v>1265.280934468308</v>
+        <v>1265.280934468307</v>
       </c>
       <c r="O4" t="n">
-        <v>1554.020240090065</v>
+        <v>1554.020240090064</v>
       </c>
       <c r="P4" t="n">
-        <v>1777.565915077022</v>
+        <v>1777.565915077021</v>
       </c>
       <c r="Q4" t="n">
-        <v>1848.902273001216</v>
+        <v>1848.902273001215</v>
       </c>
       <c r="R4" t="n">
-        <v>1755.634517809516</v>
+        <v>1848.902273001215</v>
       </c>
       <c r="S4" t="n">
-        <v>1562.6163853208</v>
+        <v>1848.902273001215</v>
       </c>
       <c r="T4" t="n">
-        <v>1340.523136239672</v>
+        <v>1848.902273001215</v>
       </c>
       <c r="U4" t="n">
-        <v>1051.41609957403</v>
+        <v>1848.902273001215</v>
       </c>
       <c r="V4" t="n">
-        <v>796.7316113681435</v>
+        <v>1596.101285741767</v>
       </c>
       <c r="W4" t="n">
-        <v>507.3144413311829</v>
+        <v>1306.684115704806</v>
       </c>
       <c r="X4" t="n">
-        <v>507.3144413311829</v>
+        <v>1078.694564806789</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3144413311829</v>
+        <v>857.9019856632586</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.864437266279</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.901920325867</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.901920325867</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1136677276231</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V5" t="n">
-        <v>2691.069367567292</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W5" t="n">
-        <v>2691.069367567292</v>
+        <v>2828.826251643334</v>
       </c>
       <c r="X5" t="n">
-        <v>2317.603609306213</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y5" t="n">
-        <v>1927.464277330401</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,34 +4662,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.2149530574644</v>
+        <v>788.4062285743621</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574644</v>
+        <v>619.4700456464552</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574644</v>
+        <v>469.3534062341195</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574644</v>
+        <v>321.4403126517263</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4744,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
         <v>1735.608663915319</v>
@@ -4756,19 +4756,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610488</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046014</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676408</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X7" t="n">
-        <v>452.6479724696235</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="Y7" t="n">
-        <v>415.8634178877041</v>
+        <v>970.0546934046018</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1540.864437266279</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653544</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>1927.464277330401</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.5323442946291</v>
+        <v>700.1577228956174</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>531.2215399677106</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1171.854848228773</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>917.1703600228861</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W10" t="n">
-        <v>917.1703600228861</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X10" t="n">
-        <v>689.1808091248688</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y10" t="n">
-        <v>689.1808091248688</v>
+        <v>707.3324606755107</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,10 +5042,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,13 +5112,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589157</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400709</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121639</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578614</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578614</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578614</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578614</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000595</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138407</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703106</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,7 +5270,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,7 +5279,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,13 +5349,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589157</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2222.001901828444</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.3544215660704</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>612.4182386381635</v>
+        <v>929.7309773356192</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381635</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557704</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5440,7 +5440,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580258</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580258</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603199</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947397</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.60190374151</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W16" t="n">
-        <v>1411.785016437858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.79546553984</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.0028863963101</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615664</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334537</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673286</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.54608366783</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694715</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740623</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385789</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385789</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913444</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2381.235169913444</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2876.560776129203</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3473.939263755754</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3473.939263755754</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.308687575529</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070597</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445479</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398592</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301204</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022978</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566163</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.23547033442</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606219</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400686</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635732</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8388927589091</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9027098310022</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310022</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310022</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797183</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138409</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703107</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5738,61 +5738,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5817,40 +5817,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.868625753638</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257311</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133953</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310022</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2022.42923855019</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1733.354011894388</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1478.669523688501</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1189.252353651541</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138413</v>
+        <v>961.2628027535235</v>
       </c>
       <c r="Y22" t="n">
-        <v>916.2946447138413</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6124,34 +6124,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576782</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576782</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>198.7444078725582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,13 +6160,13 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
@@ -6175,7 +6175,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
         <v>1688.385853854706</v>
@@ -6184,10 +6184,10 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y25" t="n">
         <v>695.5020655703109</v>
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6306,25 +6306,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.270770777032</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>634.3345878491251</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>484.2179484367894</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>336.3048548543962</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>189.4149073564859</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,7 +6406,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>963.2236229443776</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072717</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6443,37 +6443,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,25 +6543,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,10 +6871,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,25 +7014,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656811</v>
@@ -7315,13 +7315,13 @@
         <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1920.063992790046</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2343.687142285114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,7 +7567,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,58 +7780,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>135.0615335795971</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>135.0615335795951</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>5.747744270113657</v>
+        <v>5.747744270113714</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>-1.038358334006666e-12</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>188.7910847129145</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>166.1678701461567</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>95.44366461294086</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.4278941339734</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.62837588899009</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>92.33507763978307</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>191.0879511638283</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.864665936973836</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664529</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>75.37549921168775</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>17.42427990597509</v>
+        <v>109.4223302771039</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.35543909864968</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>138.820221411336</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>44.51847645928547</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H25" t="n">
-        <v>117.682081788449</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24610,10 +24610,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>70.88187642683995</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>46.45968844823133</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49733.5045052257</v>
+        <v>49733.50450522571</v>
       </c>
       <c r="C2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="D2" t="n">
         <v>61578.13273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>60535.99497675044</v>
+        <v>60535.99497675045</v>
       </c>
       <c r="F2" t="n">
         <v>60535.99497675044</v>
       </c>
       <c r="G2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675044</v>
       </c>
       <c r="H2" t="n">
         <v>60535.99497675044</v>
@@ -26335,25 +26335,25 @@
         <v>60535.99497675044</v>
       </c>
       <c r="J2" t="n">
-        <v>60535.99497675045</v>
+        <v>60535.99497675043</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="N2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="O2" t="n">
-        <v>61578.13273982127</v>
+        <v>61578.13273982125</v>
       </c>
       <c r="P2" t="n">
-        <v>61578.13273982126</v>
+        <v>61578.13273982125</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1271067.297476341</v>
+        <v>1271067.29747634</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023759</v>
+        <v>54832.77288023844</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503629</v>
+        <v>204074.6584503627</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594282</v>
+        <v>32664.34410594303</v>
       </c>
       <c r="L3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363181</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15992.65981853499</v>
+        <v>15992.65981853503</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818167</v>
       </c>
       <c r="D4" t="n">
         <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="H4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12996.86414683047</v>
+      </c>
+      <c r="J4" t="n">
         <v>12996.86414683045</v>
       </c>
-      <c r="G4" t="n">
-        <v>12996.86414683052</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12996.86414683048</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12996.86414683049</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12996.86414683044</v>
-      </c>
       <c r="K4" t="n">
-        <v>20987.7234099239</v>
+        <v>20987.72340992393</v>
       </c>
       <c r="L4" t="n">
         <v>20987.72340992391</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="N4" t="n">
         <v>20987.7234099239</v>
       </c>
       <c r="O4" t="n">
-        <v>20987.72340992393</v>
+        <v>20987.72340992389</v>
       </c>
       <c r="P4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.7234099239</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1341218.481401693</v>
+        <v>-1341613.302342846</v>
       </c>
       <c r="C6" t="n">
-        <v>-193372.4796199914</v>
+        <v>-193372.4796199922</v>
       </c>
       <c r="D6" t="n">
         <v>-138539.7067397538</v>
       </c>
       <c r="E6" t="n">
-        <v>-378995.8608013421</v>
+        <v>-379030.598726778</v>
       </c>
       <c r="F6" t="n">
-        <v>-53583.39899398711</v>
+        <v>-53618.1369194228</v>
       </c>
       <c r="G6" t="n">
-        <v>-53583.39899398714</v>
+        <v>-53618.1369194228</v>
       </c>
       <c r="H6" t="n">
-        <v>-53583.39899398712</v>
+        <v>-53618.1369194228</v>
       </c>
       <c r="I6" t="n">
-        <v>-53583.39899398715</v>
+        <v>-53618.13691942283</v>
       </c>
       <c r="J6" t="n">
-        <v>-257658.05744435</v>
+        <v>-257692.7953697856</v>
       </c>
       <c r="K6" t="n">
-        <v>-95238.05062996085</v>
+        <v>-95238.0506299611</v>
       </c>
       <c r="L6" t="n">
-        <v>-62573.70652401807</v>
+        <v>-62573.70652401806</v>
       </c>
       <c r="M6" t="n">
         <v>-147628.7344595299</v>
       </c>
       <c r="N6" t="n">
-        <v>-62573.70652401806</v>
+        <v>-62573.70652401805</v>
       </c>
       <c r="O6" t="n">
-        <v>-62573.70652401806</v>
+        <v>-62573.70652401805</v>
       </c>
       <c r="P6" t="n">
-        <v>-82001.42451764981</v>
+        <v>-82001.42451764987</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203973</v>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559097</v>
+        <v>779.9707176559093</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26960,13 +26960,13 @@
         <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
-        <v>41.96894928303209</v>
+        <v>41.96894928303277</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559097</v>
+        <v>779.9707176559093</v>
       </c>
       <c r="C4" t="n">
-        <v>51.43073774638287</v>
+        <v>51.43073774638356</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559099</v>
+        <v>779.9707176559093</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638287</v>
+        <v>51.43073774638356</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559097</v>
+        <v>779.9707176559093</v>
       </c>
       <c r="K4" t="n">
-        <v>51.43073774638287</v>
+        <v>51.43073774638356</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>263.662072855374</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>312.3423365497558</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>37.79714867990457</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.1679443159946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>207.0466090246044</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.9841791061423</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>172.728989779843</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,13 +28065,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>36.57666262214897</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28266,7 +28266,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.885211986518698e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.212292467578956</v>
+        <v>4.212292467578954</v>
       </c>
       <c r="H2" t="n">
-        <v>43.13914023359299</v>
+        <v>43.13914023359297</v>
       </c>
       <c r="I2" t="n">
         <v>162.3944053563378</v>
       </c>
       <c r="J2" t="n">
-        <v>357.5130578201797</v>
+        <v>357.5130578201795</v>
       </c>
       <c r="K2" t="n">
-        <v>535.819397972797</v>
+        <v>535.8193979727968</v>
       </c>
       <c r="L2" t="n">
-        <v>664.7313435774666</v>
+        <v>664.7313435774663</v>
       </c>
       <c r="M2" t="n">
-        <v>739.6416997477738</v>
+        <v>739.6416997477735</v>
       </c>
       <c r="N2" t="n">
-        <v>751.6098757212826</v>
+        <v>751.6098757212823</v>
       </c>
       <c r="O2" t="n">
-        <v>709.7238924967943</v>
+        <v>709.723892496794</v>
       </c>
       <c r="P2" t="n">
-        <v>605.7329222034388</v>
+        <v>605.7329222034385</v>
       </c>
       <c r="Q2" t="n">
-        <v>454.8801982082672</v>
+        <v>454.8801982082671</v>
       </c>
       <c r="R2" t="n">
-        <v>264.6004167165568</v>
+        <v>264.6004167165567</v>
       </c>
       <c r="S2" t="n">
-        <v>95.98761460495554</v>
+        <v>95.98761460495551</v>
       </c>
       <c r="T2" t="n">
-        <v>18.43931027682689</v>
+        <v>18.43931027682688</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3369833974063164</v>
+        <v>0.3369833974063162</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31121,46 @@
         <v>2.253775163195666</v>
       </c>
       <c r="H3" t="n">
-        <v>21.76672328665289</v>
+        <v>21.76672328665288</v>
       </c>
       <c r="I3" t="n">
-        <v>77.59708346967537</v>
+        <v>77.59708346967534</v>
       </c>
       <c r="J3" t="n">
-        <v>212.9323280280608</v>
+        <v>212.9323280280607</v>
       </c>
       <c r="K3" t="n">
-        <v>363.9352639621704</v>
+        <v>363.9352639621703</v>
       </c>
       <c r="L3" t="n">
-        <v>489.3558747982521</v>
+        <v>489.3558747982519</v>
       </c>
       <c r="M3" t="n">
-        <v>571.0552244640949</v>
+        <v>571.0552244640946</v>
       </c>
       <c r="N3" t="n">
-        <v>586.1693570278063</v>
+        <v>586.1693570278061</v>
       </c>
       <c r="O3" t="n">
-        <v>536.2304442012075</v>
+        <v>536.2304442012073</v>
       </c>
       <c r="P3" t="n">
-        <v>430.3722063825129</v>
+        <v>430.3722063825127</v>
       </c>
       <c r="Q3" t="n">
-        <v>287.6924225861696</v>
+        <v>287.6924225861695</v>
       </c>
       <c r="R3" t="n">
-        <v>139.9317596938503</v>
+        <v>139.9317596938502</v>
       </c>
       <c r="S3" t="n">
-        <v>41.86288515848089</v>
+        <v>41.86288515848086</v>
       </c>
       <c r="T3" t="n">
-        <v>9.084295504284285</v>
+        <v>9.084295504284279</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1482746817891887</v>
+        <v>0.1482746817891886</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.889489387608676</v>
+        <v>1.889489387608675</v>
       </c>
       <c r="H4" t="n">
-        <v>16.79927837346624</v>
+        <v>16.79927837346623</v>
       </c>
       <c r="I4" t="n">
-        <v>56.82209903826821</v>
+        <v>56.82209903826818</v>
       </c>
       <c r="J4" t="n">
-        <v>133.5868997039334</v>
+        <v>133.5868997039333</v>
       </c>
       <c r="K4" t="n">
-        <v>219.5243124876261</v>
+        <v>219.524312487626</v>
       </c>
       <c r="L4" t="n">
-        <v>280.9155404086573</v>
+        <v>280.9155404086571</v>
       </c>
       <c r="M4" t="n">
-        <v>296.1860500957854</v>
+        <v>296.1860500957853</v>
       </c>
       <c r="N4" t="n">
-        <v>289.1434078328806</v>
+        <v>289.1434078328805</v>
       </c>
       <c r="O4" t="n">
-        <v>267.070736350361</v>
+        <v>267.0707363503608</v>
       </c>
       <c r="P4" t="n">
-        <v>228.5251528431438</v>
+        <v>228.5251528431437</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.2189704478502</v>
+        <v>158.2189704478501</v>
       </c>
       <c r="R4" t="n">
-        <v>84.95831373738645</v>
+        <v>84.95831373738642</v>
       </c>
       <c r="S4" t="n">
-        <v>32.92864687314392</v>
+        <v>32.9286468731439</v>
       </c>
       <c r="T4" t="n">
-        <v>8.073272837964341</v>
+        <v>8.073272837964337</v>
       </c>
       <c r="U4" t="n">
         <v>0.1030630575059279</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>333.9544784328829</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>232.7599890885205</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>671.2522281007823</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32488,7 +32488,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32552,28 +32552,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>312.3207226334981</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,7 +33026,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33263,7 +33263,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>458.677017313216</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33427,7 +33427,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159425</v>
@@ -33497,13 +33497,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>216.0947523943934</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,13 +33734,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>241.387751759078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,28 +34211,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>314.4610577451606</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>604.245822599193</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>176.4671532934934</v>
+        <v>176.4671532934933</v>
       </c>
       <c r="K2" t="n">
-        <v>315.7295469278164</v>
+        <v>315.7295469278162</v>
       </c>
       <c r="L2" t="n">
-        <v>428.9649286074794</v>
+        <v>428.9649286074791</v>
       </c>
       <c r="M2" t="n">
-        <v>509.2954665205011</v>
+        <v>509.2954665205008</v>
       </c>
       <c r="N2" t="n">
-        <v>522.1968121246916</v>
+        <v>522.1968121246914</v>
       </c>
       <c r="O2" t="n">
-        <v>479.6256810751075</v>
+        <v>479.6256810751072</v>
       </c>
       <c r="P2" t="n">
-        <v>374.4999264481692</v>
+        <v>374.499926448169</v>
       </c>
       <c r="Q2" t="n">
-        <v>232.5745083338178</v>
+        <v>232.5745083338176</v>
       </c>
       <c r="R2" t="n">
-        <v>49.0148789024247</v>
+        <v>49.01487890242458</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>86.0947013613941</v>
+        <v>86.09470136139402</v>
       </c>
       <c r="K3" t="n">
-        <v>226.0938249878114</v>
+        <v>361.1553585674084</v>
       </c>
       <c r="L3" t="n">
-        <v>350.8014950183779</v>
+        <v>350.8014950183777</v>
       </c>
       <c r="M3" t="n">
-        <v>563.9827241216716</v>
+        <v>428.9211905420763</v>
       </c>
       <c r="N3" t="n">
-        <v>454.827644944473</v>
+        <v>454.8276449444728</v>
       </c>
       <c r="O3" t="n">
-        <v>393.6341997567631</v>
+        <v>393.6341997567629</v>
       </c>
       <c r="P3" t="n">
-        <v>296.3977989681827</v>
+        <v>296.3977989681824</v>
       </c>
       <c r="Q3" t="n">
-        <v>147.7106485001481</v>
+        <v>147.710648500148</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>40.22771958726062</v>
+        <v>40.22771958726057</v>
       </c>
       <c r="K4" t="n">
-        <v>197.2548206617433</v>
+        <v>197.2548206617432</v>
       </c>
       <c r="L4" t="n">
-        <v>308.5055656689734</v>
+        <v>308.5055656689732</v>
       </c>
       <c r="M4" t="n">
-        <v>335.769927057626</v>
+        <v>335.7699270576259</v>
       </c>
       <c r="N4" t="n">
-        <v>333.2755802121092</v>
+        <v>333.275580212109</v>
       </c>
       <c r="O4" t="n">
-        <v>291.6558642644006</v>
+        <v>291.6558642644005</v>
       </c>
       <c r="P4" t="n">
-        <v>225.8037121080373</v>
+        <v>225.8037121080372</v>
       </c>
       <c r="Q4" t="n">
-        <v>72.05692719615577</v>
+        <v>72.05692719615571</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>191.3582339884385</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>98.78558167419021</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306623</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>528.6559836563379</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367757</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36200,28 +36200,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>174.4792836591391</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36911,7 +36911,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>320.835578338857</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37145,13 +37145,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>77.54037261451923</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,13 +37382,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>114.5501250924113</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>174.4792836591391</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>472.9041105158597</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
